--- a/medicine/Mort/Cimetière_de_Somain/Cimetière_de_Somain.xlsx
+++ b/medicine/Mort/Cimetière_de_Somain/Cimetière_de_Somain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Somain</t>
+          <t>Cimetière_de_Somain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Somain Écouter est un cimetière situé au nord du centre-ville de la commune de Somain, dans le Nord, en France, il remplace celui qui existait autour de l'église Saint-Michel.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Somain</t>
+          <t>Cimetière_de_Somain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existait autrefois un cimetière autour de l'église Saint-Michel, celui-ci disparaît au tout début du XXe siècle.
-On trouve dans le vieux cimetière le monument aux morts de la guerre de 1870. Il était auparavant situé rue Adolphe-Thiers, devenue rue Paul-Vaillant-Couturier[1], près de l'école Victor-Hugo[2], depuis détruite et remplacée par l'école Paul-Éluard.
-Le second monument, commémorant la Première Guerre mondiale, comporte une crypte dans laquelle existe la tombe d'un soldat britannique du Commonwealth : le lieutenant Herbert Frederick Birdwood, tué lors d'un combat aérien au-dessus de Valenciennes le 2 mars 1916. La statue représente Louise Michel, 253 somainois sont morts durant la Grande Guerre, durant la Seconde Guerre mondiale, ce sont quarante-cinq militaires et cent-neuf civils qui ont été victimes des raids aériens[2].
+On trouve dans le vieux cimetière le monument aux morts de la guerre de 1870. Il était auparavant situé rue Adolphe-Thiers, devenue rue Paul-Vaillant-Couturier, près de l'école Victor-Hugo, depuis détruite et remplacée par l'école Paul-Éluard.
+Le second monument, commémorant la Première Guerre mondiale, comporte une crypte dans laquelle existe la tombe d'un soldat britannique du Commonwealth : le lieutenant Herbert Frederick Birdwood, tué lors d'un combat aérien au-dessus de Valenciennes le 2 mars 1916. La statue représente Louise Michel, 253 somainois sont morts durant la Grande Guerre, durant la Seconde Guerre mondiale, ce sont quarante-cinq militaires et cent-neuf civils qui ont été victimes des raids aériens.
 			Le monument aux morts de la guerre de 1870.
 			Le monument aux morts et sa crypte.
 			Tombe du Commonwealth.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Somain</t>
+          <t>Cimetière_de_Somain</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
